--- a/Output/June/productivity_TL/productivity_TL_2022-06-02.xlsx
+++ b/Output/June/productivity_TL/productivity_TL_2022-06-02.xlsx
@@ -922,13 +922,13 @@
         <v>0</v>
       </c>
       <c r="R6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S6">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="T6">
-        <v>0.07142857142857142</v>
+        <v>0.1333333333333333</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -1040,13 +1040,13 @@
         <v>0</v>
       </c>
       <c r="R8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S8">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="T8">
-        <v>0.06896551724137931</v>
+        <v>0.1290322580645161</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -1335,13 +1335,13 @@
         <v>0</v>
       </c>
       <c r="R13">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="S13">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="T13">
-        <v>0.1052631578947368</v>
+        <v>0.1463414634146341</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1512,13 +1512,13 @@
         <v>0</v>
       </c>
       <c r="R16">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="S16">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="T16">
-        <v>0.1052631578947368</v>
+        <v>0.1463414634146341</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -2134,13 +2134,13 @@
         <v>9.716666666666667</v>
       </c>
       <c r="F3">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G3">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="H3">
-        <v>0.08955223880597014</v>
+        <v>0.1388888888888889</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2238,13 +2238,13 @@
         <v>8.933333333333334</v>
       </c>
       <c r="F7">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G7">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="H7">
-        <v>0.09090909090909091</v>
+        <v>0.1408450704225352</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2455,7 +2455,7 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0.08955223880597014</v>
+        <v>0.1388888888888889</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2511,7 +2511,7 @@
         <v>1</v>
       </c>
       <c r="D7">
-        <v>0.09090909090909091</v>
+        <v>0.1408450704225352</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -2656,7 +2656,7 @@
         <v>55</v>
       </c>
       <c r="D3">
-        <v>0.08955223880597014</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -2724,7 +2724,7 @@
         <v>55</v>
       </c>
       <c r="D7">
-        <v>0.09090909090909091</v>
+        <v>0.1408450704225352</v>
       </c>
       <c r="E7">
         <v>1</v>
